--- a/src/server/Товары.xlsx
+++ b/src/server/Товары.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a17829991/Desktop/ext/wix/server/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a17829991/Desktop/wix/src/server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F1979C-4E04-A345-89DF-B7E110624F62}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0691C5-CA15-1648-A801-D186476E1AD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Чай" sheetId="6" r:id="rId1"/>
@@ -3078,10 +3078,16 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3111,23 +3117,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3346,7 +3346,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94E57EB9-8CF0-4D44-8C72-49E7D4ADC4F6}">
   <dimension ref="A1:F200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A155" workbookViewId="0">
       <selection activeCell="A183" sqref="A183:F183"/>
     </sheetView>
   </sheetViews>
@@ -5205,7 +5205,7 @@
         <v>1620</v>
       </c>
       <c r="E91" s="15">
-        <f t="shared" ref="E91:E122" si="6">F91*2</f>
+        <f t="shared" ref="E91:E112" si="6">F91*2</f>
         <v>810</v>
       </c>
       <c r="F91" s="15">
@@ -7747,8 +7747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A659AC-0B52-6347-B928-E7E92F6A09E3}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:H66"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9111,10 +9111,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157E0379-494A-104B-A3F2-38922BE5481E}">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31:E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9124,70 +9124,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="58"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="54"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="58"/>
     </row>
     <row r="6" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="57"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="61"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="64" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
     </row>
     <row r="9" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="49" t="s">
         <v>634</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="65"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
@@ -9447,7 +9447,7 @@
       </c>
       <c r="B28" s="48"/>
       <c r="C28" s="48"/>
-      <c r="D28" s="49"/>
+      <c r="D28" s="52"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
@@ -10383,12 +10383,12 @@
       <c r="E93" s="63"/>
     </row>
     <row r="94" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="50" t="s">
+      <c r="A94" s="49" t="s">
         <v>795</v>
       </c>
       <c r="B94" s="48"/>
       <c r="C94" s="48"/>
-      <c r="D94" s="49"/>
+      <c r="D94" s="52"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="3" t="s">
@@ -10419,12 +10419,12 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="50" t="s">
+      <c r="A97" s="49" t="s">
         <v>800</v>
       </c>
       <c r="B97" s="48"/>
       <c r="C97" s="48"/>
-      <c r="D97" s="49"/>
+      <c r="D97" s="52"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="3" t="s">
@@ -10469,12 +10469,12 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="50" t="s">
+      <c r="A101" s="49" t="s">
         <v>807</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="48"/>
-      <c r="D101" s="49"/>
+      <c r="D101" s="52"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
@@ -10505,12 +10505,12 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="50" t="s">
+      <c r="A104" s="49" t="s">
         <v>812</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="48"/>
-      <c r="D104" s="49"/>
+      <c r="D104" s="52"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
@@ -10695,12 +10695,12 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="50" t="s">
+      <c r="A118" s="49" t="s">
         <v>839</v>
       </c>
       <c r="B118" s="48"/>
       <c r="C118" s="48"/>
-      <c r="D118" s="49"/>
+      <c r="D118" s="52"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="3" t="s">
@@ -10717,12 +10717,12 @@
       </c>
     </row>
     <row r="120" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="50" t="s">
+      <c r="A120" s="49" t="s">
         <v>842</v>
       </c>
       <c r="B120" s="48"/>
       <c r="C120" s="48"/>
-      <c r="D120" s="49"/>
+      <c r="D120" s="52"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="3" t="s">
@@ -10766,13 +10766,31 @@
         <v>170</v>
       </c>
     </row>
+    <row r="124" spans="1:4" ht="16" x14ac:dyDescent="0.15">
+      <c r="A124" s="47" t="s">
+        <v>569</v>
+      </c>
+      <c r="B124" s="48"/>
+      <c r="C124" s="48"/>
+      <c r="D124" s="52"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A125" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="C125" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="D125" s="31">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="A80:D80"/>
-    <mergeCell ref="A83:D83"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A1:D6"/>
+  <mergeCells count="22">
+    <mergeCell ref="A124:D124"/>
     <mergeCell ref="A104:D104"/>
     <mergeCell ref="A118:D118"/>
     <mergeCell ref="A120:D120"/>
@@ -10789,6 +10807,11 @@
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A80:D80"/>
+    <mergeCell ref="A83:D83"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A1:D6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{9B3B29A7-D42B-4F47-B757-D390B22295E8}"/>
@@ -10892,6 +10915,7 @@
     <hyperlink ref="B121" r:id="rId99" xr:uid="{1DEE3DB3-8DDD-4640-8300-DFB9BD220492}"/>
     <hyperlink ref="B122" r:id="rId100" xr:uid="{ABA98216-70D7-7044-96EC-6B410A3FE77F}"/>
     <hyperlink ref="B123" r:id="rId101" xr:uid="{1E88B321-96B0-634E-98F6-AEE2051372C8}"/>
+    <hyperlink ref="B125" r:id="rId102" xr:uid="{4EE3B7B7-8EB2-3640-BCD2-ABA1C5E6B299}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10899,10 +10923,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65972DC2-4928-3042-873E-8C2B8C5390F2}">
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10911,62 +10935,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="53"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="55"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="58"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="54"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="56"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="58"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="56"/>
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="58"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="54"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56"/>
+      <c r="A5" s="56"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="58"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="57"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="61"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="60" t="s">
+      <c r="D7" s="64" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="61"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="47" t="s">
@@ -10974,7 +10998,7 @@
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
-      <c r="D9" s="49"/>
+      <c r="D9" s="52"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
@@ -11010,7 +11034,7 @@
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
-      <c r="D12" s="49"/>
+      <c r="D12" s="52"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
@@ -11242,7 +11266,7 @@
       </c>
       <c r="B29" s="48"/>
       <c r="C29" s="48"/>
-      <c r="D29" s="49"/>
+      <c r="D29" s="52"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
@@ -11404,7 +11428,7 @@
       </c>
       <c r="B41" s="48"/>
       <c r="C41" s="48"/>
-      <c r="D41" s="49"/>
+      <c r="D41" s="52"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
@@ -11449,167 +11473,173 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A45" s="47" t="s">
-        <v>569</v>
+      <c r="A45" s="49" t="s">
+        <v>851</v>
       </c>
       <c r="B45" s="48"/>
       <c r="C45" s="48"/>
-      <c r="D45" s="49"/>
+      <c r="D45" s="52"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C46" s="30" t="s">
         <v>496</v>
       </c>
       <c r="D46" s="31">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A47" s="50" t="s">
-        <v>851</v>
-      </c>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="49"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A47" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>496</v>
+      </c>
+      <c r="D47" s="31">
+        <v>55</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="3" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C48" s="30" t="s">
         <v>496</v>
       </c>
       <c r="D48" s="31">
-        <v>55</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="3" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="C49" s="30" t="s">
         <v>496</v>
       </c>
       <c r="D49" s="31">
-        <v>55</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="3" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C50" s="30" t="s">
         <v>496</v>
       </c>
       <c r="D50" s="31">
-        <v>220</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="3" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C51" s="30" t="s">
         <v>496</v>
       </c>
       <c r="D51" s="31">
-        <v>220</v>
+        <v>425</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="3" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C52" s="30" t="s">
         <v>496</v>
       </c>
       <c r="D52" s="31">
-        <v>350</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="3" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="C53" s="30" t="s">
         <v>496</v>
       </c>
       <c r="D53" s="31">
-        <v>425</v>
+        <v>80</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="C54" s="30" t="s">
         <v>496</v>
       </c>
       <c r="D54" s="31">
-        <v>65</v>
+        <v>260</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="3" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="C55" s="30" t="s">
         <v>496</v>
       </c>
       <c r="D55" s="31">
-        <v>80</v>
+        <v>250</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="3" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="C56" s="30" t="s">
         <v>496</v>
       </c>
       <c r="D56" s="31">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="3" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="C57" s="30" t="s">
         <v>496</v>
@@ -11620,10 +11650,10 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="3" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="C58" s="30" t="s">
         <v>496</v>
@@ -11634,10 +11664,10 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="3" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C59" s="30" t="s">
         <v>496</v>
@@ -11648,10 +11678,10 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="C60" s="30" t="s">
         <v>496</v>
@@ -11662,10 +11692,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C61" s="30" t="s">
         <v>496</v>
@@ -11676,10 +11706,10 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="3" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C62" s="30" t="s">
         <v>496</v>
@@ -11690,122 +11720,122 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="3" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C63" s="30" t="s">
         <v>496</v>
       </c>
       <c r="D63" s="31">
-        <v>250</v>
+        <v>220</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="3" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="C64" s="30" t="s">
         <v>496</v>
       </c>
       <c r="D64" s="31">
-        <v>250</v>
+        <v>55</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="3" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="C65" s="30" t="s">
         <v>496</v>
       </c>
       <c r="D65" s="31">
-        <v>220</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="3" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C66" s="30" t="s">
         <v>496</v>
       </c>
       <c r="D66" s="31">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="3" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="C67" s="30" t="s">
         <v>496</v>
       </c>
       <c r="D67" s="31">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="3" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="C68" s="30" t="s">
         <v>496</v>
       </c>
       <c r="D68" s="31">
-        <v>60</v>
+        <v>350</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="3" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="C69" s="30" t="s">
         <v>496</v>
       </c>
       <c r="D69" s="31">
-        <v>60</v>
+        <v>350</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="3" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="C70" s="30" t="s">
         <v>496</v>
       </c>
       <c r="D70" s="31">
-        <v>350</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="3" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="C71" s="30" t="s">
         <v>496</v>
@@ -11816,24 +11846,24 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="3" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="C72" s="30" t="s">
         <v>496</v>
       </c>
       <c r="D72" s="31">
-        <v>240</v>
+        <v>340</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="C73" s="30" t="s">
         <v>496</v>
@@ -11844,87 +11874,58 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="3" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="C74" s="30" t="s">
         <v>496</v>
       </c>
       <c r="D74" s="31">
-        <v>340</v>
+        <v>70</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="3" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C75" s="30" t="s">
         <v>496</v>
       </c>
       <c r="D75" s="31">
-        <v>350</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="3" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="C76" s="30" t="s">
         <v>496</v>
       </c>
       <c r="D76" s="31">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>631</v>
-      </c>
-      <c r="C77" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="D77" s="31">
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="3" t="s">
-        <v>632</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="C78" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="D78" s="31">
-        <v>80</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="10">
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A45:D45"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A1:D6"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A41:D41"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A47:D47"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{E59C0255-56B6-D947-9B59-9AC8C1FEB23E}"/>
@@ -11960,38 +11961,37 @@
     <hyperlink ref="B42" r:id="rId31" xr:uid="{72F2057B-FB22-984F-82BE-408B2CA6B7A1}"/>
     <hyperlink ref="B43" r:id="rId32" xr:uid="{24DA73EE-50FC-6748-AC5F-64B745E10E46}"/>
     <hyperlink ref="B44" r:id="rId33" xr:uid="{96D755BF-0DD1-9F42-905F-DA3981A28E5D}"/>
-    <hyperlink ref="B46" r:id="rId34" xr:uid="{4EE3B7B7-8EB2-3640-BCD2-ABA1C5E6B299}"/>
-    <hyperlink ref="B48" r:id="rId35" xr:uid="{9E286F27-2585-DC43-BF4A-8A10DA8544D1}"/>
-    <hyperlink ref="B49" r:id="rId36" xr:uid="{2E87FBF4-460F-5C45-96EF-B7F6E7F33E6D}"/>
-    <hyperlink ref="B50" r:id="rId37" xr:uid="{12C0FA1D-3C65-334B-A200-E7DD503295B5}"/>
-    <hyperlink ref="B51" r:id="rId38" xr:uid="{3EF039E4-517B-D74D-A993-0276DFB6D611}"/>
-    <hyperlink ref="B52" r:id="rId39" xr:uid="{1938B98F-3C67-3F49-AA11-1540CB371927}"/>
-    <hyperlink ref="B53" r:id="rId40" xr:uid="{6787B350-CF49-A74B-A33C-F7144A350704}"/>
-    <hyperlink ref="B54" r:id="rId41" xr:uid="{5B3DD311-14EB-414A-ACC8-6092C076CC4B}"/>
-    <hyperlink ref="B55" r:id="rId42" xr:uid="{6B2FCCA2-5654-5C45-BDA2-AAAE25C4715D}"/>
-    <hyperlink ref="B56" r:id="rId43" xr:uid="{CD0AA2C5-CD82-7B4A-8774-97FA71270438}"/>
-    <hyperlink ref="B57" r:id="rId44" xr:uid="{D250A370-E2BA-DC4F-BB9B-CAB7B424DABD}"/>
-    <hyperlink ref="B58" r:id="rId45" xr:uid="{076AFC0A-9A01-CC4E-B06F-5914266BCED3}"/>
-    <hyperlink ref="B59" r:id="rId46" xr:uid="{64B27722-D087-E246-8232-F78E4D9B13C5}"/>
-    <hyperlink ref="B60" r:id="rId47" xr:uid="{8179B27E-A2B3-D248-B041-0766FF41E427}"/>
-    <hyperlink ref="B61" r:id="rId48" xr:uid="{B6DED374-9A34-CF43-83A9-0808C65E8000}"/>
-    <hyperlink ref="B62" r:id="rId49" xr:uid="{0CF020CF-175A-5F4E-9234-503770CF4A8D}"/>
-    <hyperlink ref="B63" r:id="rId50" xr:uid="{AAAB9F39-A236-D540-8AF9-578F83039283}"/>
-    <hyperlink ref="B64" r:id="rId51" xr:uid="{A4AEF05C-451E-7E4F-88EA-9A17D5763563}"/>
-    <hyperlink ref="B65" r:id="rId52" xr:uid="{525B9095-D04B-EB46-89E9-4A853FDFAB28}"/>
-    <hyperlink ref="B66" r:id="rId53" xr:uid="{D5A3D764-69A3-B843-9303-5A0266586D44}"/>
-    <hyperlink ref="B67" r:id="rId54" xr:uid="{CDB222AE-380F-5344-AFF3-74989B5D98DA}"/>
-    <hyperlink ref="B68" r:id="rId55" xr:uid="{C06E23E9-2CB6-E749-9A6D-1833B5C8415F}"/>
-    <hyperlink ref="B69" r:id="rId56" xr:uid="{78F23804-0BC5-EA40-ACF1-761A670DDD0C}"/>
-    <hyperlink ref="B70" r:id="rId57" xr:uid="{898E5397-6C11-8547-96D6-CB03BF28C6B2}"/>
-    <hyperlink ref="B71" r:id="rId58" xr:uid="{03A99C57-17C3-3A4C-9D27-D940B792188D}"/>
-    <hyperlink ref="B72" r:id="rId59" xr:uid="{8A1B01F7-2774-534C-87B8-4314CE26EB35}"/>
-    <hyperlink ref="B73" r:id="rId60" xr:uid="{668C61A6-FBDE-9F4E-807F-90305539CAD9}"/>
-    <hyperlink ref="B74" r:id="rId61" xr:uid="{C0723EA7-555E-1647-85A0-B9CBDF1BFEFD}"/>
-    <hyperlink ref="B75" r:id="rId62" xr:uid="{61EA6EAB-747E-514F-B590-D7BDFC5ECAF3}"/>
-    <hyperlink ref="B76" r:id="rId63" xr:uid="{18217350-E04E-0843-89C6-D7C3384EC891}"/>
-    <hyperlink ref="B77" r:id="rId64" xr:uid="{6F8EEF14-4E4E-044F-B628-74D2654399FB}"/>
-    <hyperlink ref="B78" r:id="rId65" xr:uid="{D73C8B8C-AA88-1E42-839C-48A45339EF95}"/>
+    <hyperlink ref="B46" r:id="rId34" xr:uid="{9E286F27-2585-DC43-BF4A-8A10DA8544D1}"/>
+    <hyperlink ref="B47" r:id="rId35" xr:uid="{2E87FBF4-460F-5C45-96EF-B7F6E7F33E6D}"/>
+    <hyperlink ref="B48" r:id="rId36" xr:uid="{12C0FA1D-3C65-334B-A200-E7DD503295B5}"/>
+    <hyperlink ref="B49" r:id="rId37" xr:uid="{3EF039E4-517B-D74D-A993-0276DFB6D611}"/>
+    <hyperlink ref="B50" r:id="rId38" xr:uid="{1938B98F-3C67-3F49-AA11-1540CB371927}"/>
+    <hyperlink ref="B51" r:id="rId39" xr:uid="{6787B350-CF49-A74B-A33C-F7144A350704}"/>
+    <hyperlink ref="B52" r:id="rId40" xr:uid="{5B3DD311-14EB-414A-ACC8-6092C076CC4B}"/>
+    <hyperlink ref="B53" r:id="rId41" xr:uid="{6B2FCCA2-5654-5C45-BDA2-AAAE25C4715D}"/>
+    <hyperlink ref="B54" r:id="rId42" xr:uid="{CD0AA2C5-CD82-7B4A-8774-97FA71270438}"/>
+    <hyperlink ref="B55" r:id="rId43" xr:uid="{D250A370-E2BA-DC4F-BB9B-CAB7B424DABD}"/>
+    <hyperlink ref="B56" r:id="rId44" xr:uid="{076AFC0A-9A01-CC4E-B06F-5914266BCED3}"/>
+    <hyperlink ref="B57" r:id="rId45" xr:uid="{64B27722-D087-E246-8232-F78E4D9B13C5}"/>
+    <hyperlink ref="B58" r:id="rId46" xr:uid="{8179B27E-A2B3-D248-B041-0766FF41E427}"/>
+    <hyperlink ref="B59" r:id="rId47" xr:uid="{B6DED374-9A34-CF43-83A9-0808C65E8000}"/>
+    <hyperlink ref="B60" r:id="rId48" xr:uid="{0CF020CF-175A-5F4E-9234-503770CF4A8D}"/>
+    <hyperlink ref="B61" r:id="rId49" xr:uid="{AAAB9F39-A236-D540-8AF9-578F83039283}"/>
+    <hyperlink ref="B62" r:id="rId50" xr:uid="{A4AEF05C-451E-7E4F-88EA-9A17D5763563}"/>
+    <hyperlink ref="B63" r:id="rId51" xr:uid="{525B9095-D04B-EB46-89E9-4A853FDFAB28}"/>
+    <hyperlink ref="B64" r:id="rId52" xr:uid="{D5A3D764-69A3-B843-9303-5A0266586D44}"/>
+    <hyperlink ref="B65" r:id="rId53" xr:uid="{CDB222AE-380F-5344-AFF3-74989B5D98DA}"/>
+    <hyperlink ref="B66" r:id="rId54" xr:uid="{C06E23E9-2CB6-E749-9A6D-1833B5C8415F}"/>
+    <hyperlink ref="B67" r:id="rId55" xr:uid="{78F23804-0BC5-EA40-ACF1-761A670DDD0C}"/>
+    <hyperlink ref="B68" r:id="rId56" xr:uid="{898E5397-6C11-8547-96D6-CB03BF28C6B2}"/>
+    <hyperlink ref="B69" r:id="rId57" xr:uid="{03A99C57-17C3-3A4C-9D27-D940B792188D}"/>
+    <hyperlink ref="B70" r:id="rId58" xr:uid="{8A1B01F7-2774-534C-87B8-4314CE26EB35}"/>
+    <hyperlink ref="B71" r:id="rId59" xr:uid="{668C61A6-FBDE-9F4E-807F-90305539CAD9}"/>
+    <hyperlink ref="B72" r:id="rId60" xr:uid="{C0723EA7-555E-1647-85A0-B9CBDF1BFEFD}"/>
+    <hyperlink ref="B73" r:id="rId61" xr:uid="{61EA6EAB-747E-514F-B590-D7BDFC5ECAF3}"/>
+    <hyperlink ref="B74" r:id="rId62" xr:uid="{18217350-E04E-0843-89C6-D7C3384EC891}"/>
+    <hyperlink ref="B75" r:id="rId63" xr:uid="{6F8EEF14-4E4E-044F-B628-74D2654399FB}"/>
+    <hyperlink ref="B76" r:id="rId64" xr:uid="{D73C8B8C-AA88-1E42-839C-48A45339EF95}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/server/Товары.xlsx
+++ b/src/server/Товары.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a17829991/Desktop/wix/src/server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0691C5-CA15-1648-A801-D186476E1AD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{443FF84F-0D24-8B43-9616-39579295741D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19200" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Чай" sheetId="6" r:id="rId1"/>
@@ -2684,7 +2684,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2749,6 +2749,18 @@
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor rgb="FF32CD32"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFCFAEB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2946,7 +2958,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -3078,7 +3090,22 @@
     <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3086,9 +3113,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3117,16 +3141,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="12" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="13" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7747,7 +7782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A659AC-0B52-6347-B928-E7E92F6A09E3}">
   <dimension ref="A1:H69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="E65" sqref="E65"/>
     </sheetView>
   </sheetViews>
@@ -9113,8 +9148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157E0379-494A-104B-A3F2-38922BE5481E}">
   <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31:E114"/>
+    <sheetView topLeftCell="A186" workbookViewId="0">
+      <selection activeCell="D91" sqref="A91:D91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -9124,70 +9159,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="13" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="58"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="62"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="56"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="58"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="62"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="56"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
     </row>
     <row r="6" spans="1:4" ht="14" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="59"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="65"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="53" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="65"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
     </row>
     <row r="9" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="50" t="s">
         <v>634</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="56"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
@@ -9447,7 +9482,7 @@
       </c>
       <c r="B28" s="48"/>
       <c r="C28" s="48"/>
-      <c r="D28" s="52"/>
+      <c r="D28" s="49"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="4" t="s">
@@ -9484,7 +9519,7 @@
       <c r="B31" s="48"/>
       <c r="C31" s="48"/>
       <c r="D31" s="48"/>
-      <c r="E31" s="62" t="s">
+      <c r="E31" s="51" t="s">
         <v>675</v>
       </c>
     </row>
@@ -9501,7 +9536,7 @@
       <c r="D32" s="36">
         <v>350</v>
       </c>
-      <c r="E32" s="63"/>
+      <c r="E32" s="52"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
@@ -9516,7 +9551,7 @@
       <c r="D33" s="37">
         <v>25</v>
       </c>
-      <c r="E33" s="63"/>
+      <c r="E33" s="52"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="4" t="s">
@@ -9531,7 +9566,7 @@
       <c r="D34" s="36">
         <v>95</v>
       </c>
-      <c r="E34" s="63"/>
+      <c r="E34" s="52"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="4" t="s">
@@ -9546,7 +9581,7 @@
       <c r="D35" s="36">
         <v>130</v>
       </c>
-      <c r="E35" s="63"/>
+      <c r="E35" s="52"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
@@ -9561,7 +9596,7 @@
       <c r="D36" s="37">
         <v>15</v>
       </c>
-      <c r="E36" s="63"/>
+      <c r="E36" s="52"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="4" t="s">
@@ -9576,7 +9611,7 @@
       <c r="D37" s="36">
         <v>225</v>
       </c>
-      <c r="E37" s="63"/>
+      <c r="E37" s="52"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="4" t="s">
@@ -9591,7 +9626,7 @@
       <c r="D38" s="36">
         <v>170</v>
       </c>
-      <c r="E38" s="63"/>
+      <c r="E38" s="52"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
@@ -9606,7 +9641,7 @@
       <c r="D39" s="37">
         <v>425</v>
       </c>
-      <c r="E39" s="63"/>
+      <c r="E39" s="52"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="4" t="s">
@@ -9621,7 +9656,7 @@
       <c r="D40" s="36">
         <v>120</v>
       </c>
-      <c r="E40" s="63"/>
+      <c r="E40" s="52"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="4" t="s">
@@ -9636,7 +9671,7 @@
       <c r="D41" s="36">
         <v>135</v>
       </c>
-      <c r="E41" s="63"/>
+      <c r="E41" s="52"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="4" t="s">
@@ -9651,7 +9686,7 @@
       <c r="D42" s="36">
         <v>460</v>
       </c>
-      <c r="E42" s="63"/>
+      <c r="E42" s="52"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="4" t="s">
@@ -9666,7 +9701,7 @@
       <c r="D43" s="36">
         <v>335</v>
       </c>
-      <c r="E43" s="63"/>
+      <c r="E43" s="52"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="4" t="s">
@@ -9681,7 +9716,7 @@
       <c r="D44" s="36">
         <v>895</v>
       </c>
-      <c r="E44" s="63"/>
+      <c r="E44" s="52"/>
     </row>
     <row r="45" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="47" t="s">
@@ -9690,7 +9725,7 @@
       <c r="B45" s="48"/>
       <c r="C45" s="48"/>
       <c r="D45" s="48"/>
-      <c r="E45" s="63"/>
+      <c r="E45" s="52"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="4" t="s">
@@ -9705,7 +9740,7 @@
       <c r="D46" s="36">
         <v>200</v>
       </c>
-      <c r="E46" s="63"/>
+      <c r="E46" s="52"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="4" t="s">
@@ -9720,7 +9755,7 @@
       <c r="D47" s="36">
         <v>190</v>
       </c>
-      <c r="E47" s="63"/>
+      <c r="E47" s="52"/>
     </row>
     <row r="48" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="47" t="s">
@@ -9729,7 +9764,7 @@
       <c r="B48" s="48"/>
       <c r="C48" s="48"/>
       <c r="D48" s="48"/>
-      <c r="E48" s="63"/>
+      <c r="E48" s="52"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A49" s="4" t="s">
@@ -9744,7 +9779,7 @@
       <c r="D49" s="36">
         <v>275</v>
       </c>
-      <c r="E49" s="63"/>
+      <c r="E49" s="52"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A50" s="4" t="s">
@@ -9759,7 +9794,7 @@
       <c r="D50" s="36">
         <v>475</v>
       </c>
-      <c r="E50" s="63"/>
+      <c r="E50" s="52"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A51" s="4" t="s">
@@ -9774,7 +9809,7 @@
       <c r="D51" s="36">
         <v>530</v>
       </c>
-      <c r="E51" s="63"/>
+      <c r="E51" s="52"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A52" s="4" t="s">
@@ -9789,7 +9824,7 @@
       <c r="D52" s="36">
         <v>530</v>
       </c>
-      <c r="E52" s="63"/>
+      <c r="E52" s="52"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A53" s="4" t="s">
@@ -9804,7 +9839,7 @@
       <c r="D53" s="36">
         <v>345</v>
       </c>
-      <c r="E53" s="63"/>
+      <c r="E53" s="52"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A54" s="4" t="s">
@@ -9819,7 +9854,7 @@
       <c r="D54" s="36">
         <v>370</v>
       </c>
-      <c r="E54" s="63"/>
+      <c r="E54" s="52"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A55" s="4" t="s">
@@ -9834,7 +9869,7 @@
       <c r="D55" s="36">
         <v>480</v>
       </c>
-      <c r="E55" s="63"/>
+      <c r="E55" s="52"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A56" s="4" t="s">
@@ -9849,7 +9884,7 @@
       <c r="D56" s="36">
         <v>565</v>
       </c>
-      <c r="E56" s="63"/>
+      <c r="E56" s="52"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A57" s="4" t="s">
@@ -9864,7 +9899,7 @@
       <c r="D57" s="36">
         <v>490</v>
       </c>
-      <c r="E57" s="63"/>
+      <c r="E57" s="52"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A58" s="4" t="s">
@@ -9879,7 +9914,7 @@
       <c r="D58" s="36">
         <v>395</v>
       </c>
-      <c r="E58" s="63"/>
+      <c r="E58" s="52"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A59" s="4" t="s">
@@ -9894,7 +9929,7 @@
       <c r="D59" s="36">
         <v>550</v>
       </c>
-      <c r="E59" s="63"/>
+      <c r="E59" s="52"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A60" s="3" t="s">
@@ -9909,7 +9944,7 @@
       <c r="D60" s="37">
         <v>245</v>
       </c>
-      <c r="E60" s="63"/>
+      <c r="E60" s="52"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A61" s="3" t="s">
@@ -9924,7 +9959,7 @@
       <c r="D61" s="37">
         <v>350</v>
       </c>
-      <c r="E61" s="63"/>
+      <c r="E61" s="52"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A62" s="4" t="s">
@@ -9939,7 +9974,7 @@
       <c r="D62" s="36">
         <v>250</v>
       </c>
-      <c r="E62" s="63"/>
+      <c r="E62" s="52"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A63" s="4" t="s">
@@ -9954,7 +9989,7 @@
       <c r="D63" s="36">
         <v>500</v>
       </c>
-      <c r="E63" s="63"/>
+      <c r="E63" s="52"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A64" s="4" t="s">
@@ -9969,22 +10004,22 @@
       <c r="D64" s="36">
         <v>320</v>
       </c>
-      <c r="E64" s="63"/>
+      <c r="E64" s="52"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="66" t="s">
         <v>741</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="67" t="s">
         <v>742</v>
       </c>
-      <c r="C65" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="D65" s="37">
+      <c r="C65" s="68" t="s">
+        <v>496</v>
+      </c>
+      <c r="D65" s="69">
         <v>965</v>
       </c>
-      <c r="E65" s="63"/>
+      <c r="E65" s="52"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A66" s="4" t="s">
@@ -9999,7 +10034,7 @@
       <c r="D66" s="36">
         <v>550</v>
       </c>
-      <c r="E66" s="63"/>
+      <c r="E66" s="52"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A67" s="4" t="s">
@@ -10014,7 +10049,7 @@
       <c r="D67" s="36">
         <v>550</v>
       </c>
-      <c r="E67" s="63"/>
+      <c r="E67" s="52"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A68" s="4" t="s">
@@ -10029,22 +10064,22 @@
       <c r="D68" s="36">
         <v>400</v>
       </c>
-      <c r="E68" s="63"/>
+      <c r="E68" s="52"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="66" t="s">
         <v>749</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="67" t="s">
         <v>750</v>
       </c>
-      <c r="C69" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="D69" s="37">
+      <c r="C69" s="68" t="s">
+        <v>496</v>
+      </c>
+      <c r="D69" s="69">
         <v>965</v>
       </c>
-      <c r="E69" s="63"/>
+      <c r="E69" s="52"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A70" s="4" t="s">
@@ -10059,7 +10094,7 @@
       <c r="D70" s="36">
         <v>160</v>
       </c>
-      <c r="E70" s="63"/>
+      <c r="E70" s="52"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A71" s="4" t="s">
@@ -10074,7 +10109,7 @@
       <c r="D71" s="36">
         <v>495</v>
       </c>
-      <c r="E71" s="63"/>
+      <c r="E71" s="52"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A72" s="4" t="s">
@@ -10089,7 +10124,7 @@
       <c r="D72" s="36">
         <v>275</v>
       </c>
-      <c r="E72" s="63"/>
+      <c r="E72" s="52"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A73" s="3" t="s">
@@ -10104,7 +10139,7 @@
       <c r="D73" s="37">
         <v>385</v>
       </c>
-      <c r="E73" s="63"/>
+      <c r="E73" s="52"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A74" s="4" t="s">
@@ -10119,7 +10154,7 @@
       <c r="D74" s="36">
         <v>465</v>
       </c>
-      <c r="E74" s="63"/>
+      <c r="E74" s="52"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A75" s="4" t="s">
@@ -10134,7 +10169,7 @@
       <c r="D75" s="36">
         <v>435</v>
       </c>
-      <c r="E75" s="63"/>
+      <c r="E75" s="52"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A76" s="4" t="s">
@@ -10149,7 +10184,7 @@
       <c r="D76" s="36">
         <v>545</v>
       </c>
-      <c r="E76" s="63"/>
+      <c r="E76" s="52"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A77" s="4" t="s">
@@ -10164,7 +10199,7 @@
       <c r="D77" s="36">
         <v>910</v>
       </c>
-      <c r="E77" s="63"/>
+      <c r="E77" s="52"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A78" s="4" t="s">
@@ -10179,7 +10214,7 @@
       <c r="D78" s="36">
         <v>450</v>
       </c>
-      <c r="E78" s="63"/>
+      <c r="E78" s="52"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A79" s="4" t="s">
@@ -10194,7 +10229,7 @@
       <c r="D79" s="36">
         <v>775</v>
       </c>
-      <c r="E79" s="63"/>
+      <c r="E79" s="52"/>
     </row>
     <row r="80" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="47" t="s">
@@ -10203,7 +10238,7 @@
       <c r="B80" s="48"/>
       <c r="C80" s="48"/>
       <c r="D80" s="48"/>
-      <c r="E80" s="63"/>
+      <c r="E80" s="52"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A81" s="4" t="s">
@@ -10218,7 +10253,7 @@
       <c r="D81" s="36">
         <v>375</v>
       </c>
-      <c r="E81" s="63"/>
+      <c r="E81" s="52"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A82" s="4" t="s">
@@ -10233,7 +10268,7 @@
       <c r="D82" s="36">
         <v>545</v>
       </c>
-      <c r="E82" s="63"/>
+      <c r="E82" s="52"/>
     </row>
     <row r="83" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="47" t="s">
@@ -10242,7 +10277,7 @@
       <c r="B83" s="48"/>
       <c r="C83" s="48"/>
       <c r="D83" s="48"/>
-      <c r="E83" s="63"/>
+      <c r="E83" s="52"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A84" s="4" t="s">
@@ -10257,7 +10292,7 @@
       <c r="D84" s="36">
         <v>900</v>
       </c>
-      <c r="E84" s="63"/>
+      <c r="E84" s="52"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A85" s="4" t="s">
@@ -10272,7 +10307,7 @@
       <c r="D85" s="36">
         <v>745</v>
       </c>
-      <c r="E85" s="63"/>
+      <c r="E85" s="52"/>
     </row>
     <row r="86" spans="1:5" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="47" t="s">
@@ -10281,7 +10316,7 @@
       <c r="B86" s="48"/>
       <c r="C86" s="48"/>
       <c r="D86" s="48"/>
-      <c r="E86" s="63"/>
+      <c r="E86" s="52"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A87" s="4" t="s">
@@ -10296,7 +10331,7 @@
       <c r="D87" s="36">
         <v>860</v>
       </c>
-      <c r="E87" s="63"/>
+      <c r="E87" s="52"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A88" s="4" t="s">
@@ -10311,7 +10346,7 @@
       <c r="D88" s="36">
         <v>985</v>
       </c>
-      <c r="E88" s="63"/>
+      <c r="E88" s="52"/>
     </row>
     <row r="89" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="47" t="s">
@@ -10320,7 +10355,7 @@
       <c r="B89" s="48"/>
       <c r="C89" s="48"/>
       <c r="D89" s="48"/>
-      <c r="E89" s="63"/>
+      <c r="E89" s="52"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A90" s="4" t="s">
@@ -10335,22 +10370,22 @@
       <c r="D90" s="36">
         <v>835</v>
       </c>
-      <c r="E90" s="63"/>
+      <c r="E90" s="52"/>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="70" t="s">
         <v>789</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="71" t="s">
         <v>790</v>
       </c>
-      <c r="C91" s="27" t="s">
-        <v>496</v>
-      </c>
-      <c r="D91" s="36">
+      <c r="C91" s="72" t="s">
+        <v>496</v>
+      </c>
+      <c r="D91" s="73">
         <v>860</v>
       </c>
-      <c r="E91" s="63"/>
+      <c r="E91" s="52"/>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A92" s="4" t="s">
@@ -10365,7 +10400,7 @@
       <c r="D92" s="36">
         <v>560</v>
       </c>
-      <c r="E92" s="63"/>
+      <c r="E92" s="52"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A93" s="4" t="s">
@@ -10380,15 +10415,15 @@
       <c r="D93" s="36">
         <v>280</v>
       </c>
-      <c r="E93" s="63"/>
+      <c r="E93" s="52"/>
     </row>
     <row r="94" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="49" t="s">
+      <c r="A94" s="50" t="s">
         <v>795</v>
       </c>
       <c r="B94" s="48"/>
       <c r="C94" s="48"/>
-      <c r="D94" s="52"/>
+      <c r="D94" s="49"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A95" s="3" t="s">
@@ -10419,12 +10454,12 @@
       </c>
     </row>
     <row r="97" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="49" t="s">
+      <c r="A97" s="50" t="s">
         <v>800</v>
       </c>
       <c r="B97" s="48"/>
       <c r="C97" s="48"/>
-      <c r="D97" s="52"/>
+      <c r="D97" s="49"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="3" t="s">
@@ -10469,12 +10504,12 @@
       </c>
     </row>
     <row r="101" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="49" t="s">
+      <c r="A101" s="50" t="s">
         <v>807</v>
       </c>
       <c r="B101" s="48"/>
       <c r="C101" s="48"/>
-      <c r="D101" s="52"/>
+      <c r="D101" s="49"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="4" t="s">
@@ -10505,12 +10540,12 @@
       </c>
     </row>
     <row r="104" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="49" t="s">
+      <c r="A104" s="50" t="s">
         <v>812</v>
       </c>
       <c r="B104" s="48"/>
       <c r="C104" s="48"/>
-      <c r="D104" s="52"/>
+      <c r="D104" s="49"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="4" t="s">
@@ -10695,12 +10730,12 @@
       </c>
     </row>
     <row r="118" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="49" t="s">
+      <c r="A118" s="50" t="s">
         <v>839</v>
       </c>
       <c r="B118" s="48"/>
       <c r="C118" s="48"/>
-      <c r="D118" s="52"/>
+      <c r="D118" s="49"/>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A119" s="3" t="s">
@@ -10717,12 +10752,12 @@
       </c>
     </row>
     <row r="120" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="49" t="s">
+      <c r="A120" s="50" t="s">
         <v>842</v>
       </c>
       <c r="B120" s="48"/>
       <c r="C120" s="48"/>
-      <c r="D120" s="52"/>
+      <c r="D120" s="49"/>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A121" s="3" t="s">
@@ -10772,7 +10807,7 @@
       </c>
       <c r="B124" s="48"/>
       <c r="C124" s="48"/>
-      <c r="D124" s="52"/>
+      <c r="D124" s="49"/>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="3" t="s">
@@ -10790,20 +10825,12 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A124:D124"/>
-    <mergeCell ref="A104:D104"/>
-    <mergeCell ref="A118:D118"/>
-    <mergeCell ref="A120:D120"/>
-    <mergeCell ref="E31:E93"/>
+    <mergeCell ref="A1:D6"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A94:D94"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A101:D101"/>
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="A48:D48"/>
@@ -10811,7 +10838,15 @@
     <mergeCell ref="A83:D83"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A1:D6"/>
+    <mergeCell ref="A124:D124"/>
+    <mergeCell ref="A104:D104"/>
+    <mergeCell ref="A118:D118"/>
+    <mergeCell ref="A120:D120"/>
+    <mergeCell ref="E31:E93"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A94:D94"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A101:D101"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{9B3B29A7-D42B-4F47-B757-D390B22295E8}"/>
@@ -10925,8 +10960,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65972DC2-4928-3042-873E-8C2B8C5390F2}">
   <dimension ref="A1:D76"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -10935,62 +10970,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="55"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="59"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="58"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="62"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="56"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="58"/>
+      <c r="A3" s="60"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="61"/>
+      <c r="D3" s="62"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58"/>
+      <c r="A4" s="60"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="62"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="56"/>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58"/>
+      <c r="A5" s="60"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="61"/>
+      <c r="D5" s="62"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="59"/>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="65"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="64" t="s">
+      <c r="A7" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="64" t="s">
+      <c r="D7" s="53" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="65"/>
-      <c r="B8" s="65"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="65"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
     </row>
     <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="47" t="s">
@@ -10998,7 +11033,7 @@
       </c>
       <c r="B9" s="48"/>
       <c r="C9" s="48"/>
-      <c r="D9" s="52"/>
+      <c r="D9" s="49"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="3" t="s">
@@ -11034,7 +11069,7 @@
       </c>
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
-      <c r="D12" s="52"/>
+      <c r="D12" s="49"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
@@ -11266,7 +11301,7 @@
       </c>
       <c r="B29" s="48"/>
       <c r="C29" s="48"/>
-      <c r="D29" s="52"/>
+      <c r="D29" s="49"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
@@ -11428,7 +11463,7 @@
       </c>
       <c r="B41" s="48"/>
       <c r="C41" s="48"/>
-      <c r="D41" s="52"/>
+      <c r="D41" s="49"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="3" t="s">
@@ -11473,12 +11508,12 @@
       </c>
     </row>
     <row r="45" spans="1:4" ht="16" x14ac:dyDescent="0.15">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="50" t="s">
         <v>851</v>
       </c>
       <c r="B45" s="48"/>
       <c r="C45" s="48"/>
-      <c r="D45" s="52"/>
+      <c r="D45" s="49"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="3" t="s">
@@ -11509,30 +11544,30 @@
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="66" t="s">
         <v>576</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="67" t="s">
         <v>577</v>
       </c>
-      <c r="C48" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="D48" s="31">
+      <c r="C48" s="68" t="s">
+        <v>496</v>
+      </c>
+      <c r="D48" s="74">
         <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="66" t="s">
         <v>578</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="67" t="s">
         <v>579</v>
       </c>
-      <c r="C49" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="D49" s="31">
+      <c r="C49" s="68" t="s">
+        <v>496</v>
+      </c>
+      <c r="D49" s="74">
         <v>220</v>
       </c>
     </row>
@@ -11593,16 +11628,16 @@
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="66" t="s">
         <v>588</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="67" t="s">
         <v>589</v>
       </c>
-      <c r="C54" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="D54" s="31">
+      <c r="C54" s="68" t="s">
+        <v>496</v>
+      </c>
+      <c r="D54" s="74">
         <v>260</v>
       </c>
     </row>
@@ -11719,16 +11754,16 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="66" t="s">
         <v>606</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="67" t="s">
         <v>607</v>
       </c>
-      <c r="C63" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="D63" s="31">
+      <c r="C63" s="68" t="s">
+        <v>496</v>
+      </c>
+      <c r="D63" s="74">
         <v>220</v>
       </c>
     </row>
@@ -11817,16 +11852,16 @@
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="66" t="s">
         <v>620</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="67" t="s">
         <v>621</v>
       </c>
-      <c r="C70" s="30" t="s">
-        <v>496</v>
-      </c>
-      <c r="D70" s="31">
+      <c r="C70" s="68" t="s">
+        <v>496</v>
+      </c>
+      <c r="D70" s="74">
         <v>240</v>
       </c>
     </row>
@@ -11916,16 +11951,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A1:D6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:D8"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="A29:D29"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A45:D45"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A1:D6"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:D8"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" r:id="rId1" xr:uid="{E59C0255-56B6-D947-9B59-9AC8C1FEB23E}"/>
